--- a/DxMonth12.xlsx
+++ b/DxMonth12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salahmekhalalati/Documents/R_projects/Listingvols/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salah\Documents\R _projects\ADNI_Hippocampus_Dataframes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{463FAADB-A9EB-7341-82E2-BE900D141CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65C1DAB-3F79-4822-A581-97BF79795462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2720" windowWidth="26440" windowHeight="15260" xr2:uid="{40EFCAD3-648E-204B-91C8-00ED7AF05C3C}"/>
+    <workbookView xWindow="1950" yWindow="360" windowWidth="18195" windowHeight="11160" xr2:uid="{40EFCAD3-648E-204B-91C8-00ED7AF05C3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>RID</t>
-  </si>
-  <si>
-    <t>PTID</t>
   </si>
   <si>
     <t>SITEID</t>
@@ -1059,6 +1056,9 @@
   <si>
     <t>941_S_1203</t>
   </si>
+  <si>
+    <t>subject</t>
+  </si>
 </sst>
 </file>
 
@@ -1415,12 +1415,12 @@
   <dimension ref="A1:BB283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1036989"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1431,162 +1431,162 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>54</v>
       </c>
       <c r="B2">
         <v>2956</v>
@@ -1595,16 +1595,16 @@
         <v>295</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="1">
         <v>39231</v>
@@ -1724,9 +1724,9 @@
         <v>39231</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>3090</v>
@@ -1735,16 +1735,16 @@
         <v>413</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H3" s="1">
         <v>39248</v>
@@ -1864,9 +1864,9 @@
         <v>39248</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>3648</v>
@@ -1875,16 +1875,16 @@
         <v>685</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="1">
         <v>39323</v>
@@ -2004,9 +2004,9 @@
         <v>39323</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>3832</v>
@@ -2015,16 +2015,16 @@
         <v>729</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5">
         <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" s="1">
         <v>39352</v>
@@ -2144,9 +2144,9 @@
         <v>39352</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>5562</v>
@@ -2155,16 +2155,16 @@
         <v>1155</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" s="1">
         <v>39654</v>
@@ -2284,9 +2284,9 @@
         <v>39654</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>5526</v>
@@ -2295,16 +2295,16 @@
         <v>1261</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>101</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7" s="1">
         <v>39642</v>
@@ -2424,9 +2424,9 @@
         <v>39642</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>5296</v>
@@ -2435,16 +2435,16 @@
         <v>1268</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="1">
         <v>39591</v>
@@ -2564,9 +2564,9 @@
         <v>39591</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>5088</v>
@@ -2575,16 +2575,16 @@
         <v>1280</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9">
         <v>101</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" s="1">
         <v>39555</v>
@@ -2704,9 +2704,9 @@
         <v>39555</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>4102</v>
@@ -2715,16 +2715,16 @@
         <v>907</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10">
         <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="1">
         <v>39387</v>
@@ -2844,9 +2844,9 @@
         <v>39387</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>4024</v>
@@ -2855,16 +2855,16 @@
         <v>908</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11">
         <v>102</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="1">
         <v>39371</v>
@@ -2984,9 +2984,9 @@
         <v>39371</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>4118</v>
@@ -2995,16 +2995,16 @@
         <v>981</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12">
         <v>102</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" s="1">
         <v>39392</v>
@@ -3124,9 +3124,9 @@
         <v>39392</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>4726</v>
@@ -3135,16 +3135,16 @@
         <v>1057</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13">
         <v>102</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H13" s="1">
         <v>39498</v>
@@ -3264,9 +3264,9 @@
         <v>39498</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>4860</v>
@@ -3275,16 +3275,16 @@
         <v>1074</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14">
         <v>102</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="1">
         <v>39517</v>
@@ -3404,9 +3404,9 @@
         <v>39517</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>5062</v>
@@ -3415,16 +3415,16 @@
         <v>1122</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15">
         <v>102</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H15" s="1">
         <v>39549</v>
@@ -3544,9 +3544,9 @@
         <v>39549</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>2930</v>
@@ -3555,16 +3555,16 @@
         <v>448</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H16" s="1">
         <v>39226</v>
@@ -3684,9 +3684,9 @@
         <v>39226</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>3386</v>
@@ -3695,16 +3695,16 @@
         <v>546</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" s="1">
         <v>39290</v>
@@ -3824,9 +3824,9 @@
         <v>39290</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>3110</v>
@@ -3835,16 +3835,16 @@
         <v>553</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" s="1">
         <v>39252</v>
@@ -3964,9 +3964,9 @@
         <v>39252</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>3310</v>
@@ -3975,16 +3975,16 @@
         <v>572</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H19" s="1">
         <v>39275</v>
@@ -4104,9 +4104,9 @@
         <v>39275</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>3390</v>
@@ -4115,16 +4115,16 @@
         <v>602</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H20" s="1">
         <v>39290</v>
@@ -4244,9 +4244,9 @@
         <v>39290</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>3392</v>
@@ -4255,16 +4255,16 @@
         <v>610</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H21" s="1">
         <v>39290</v>
@@ -4384,9 +4384,9 @@
         <v>39290</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>3808</v>
@@ -4395,16 +4395,16 @@
         <v>498</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22">
         <v>103</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H22" s="1">
         <v>39350</v>
@@ -4524,9 +4524,9 @@
         <v>39350</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>4542</v>
@@ -4535,16 +4535,16 @@
         <v>731</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23">
         <v>103</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H23" s="1">
         <v>39470</v>
@@ -4664,9 +4664,9 @@
         <v>39470</v>
       </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>4580</v>
@@ -4675,16 +4675,16 @@
         <v>1130</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24">
         <v>103</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H24" s="1">
         <v>39477</v>
@@ -4804,9 +4804,9 @@
         <v>39477</v>
       </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>1468</v>
@@ -4815,16 +4815,16 @@
         <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H25" s="1">
         <v>39050</v>
@@ -4944,9 +4944,9 @@
         <v>39050</v>
       </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26">
         <v>1522</v>
@@ -4955,16 +4955,16 @@
         <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H26" s="1">
         <v>39056</v>
@@ -5084,9 +5084,9 @@
         <v>39056</v>
       </c>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27">
         <v>1926</v>
@@ -5095,16 +5095,16 @@
         <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H27" s="1">
         <v>39113</v>
@@ -5224,9 +5224,9 @@
         <v>39113</v>
       </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28">
         <v>2078</v>
@@ -5235,16 +5235,16 @@
         <v>128</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H28" s="1">
         <v>39133</v>
@@ -5364,9 +5364,9 @@
         <v>39133</v>
       </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>2600</v>
@@ -5375,16 +5375,16 @@
         <v>249</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H29" s="1">
         <v>39182</v>
@@ -5504,9 +5504,9 @@
         <v>39182</v>
       </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30">
         <v>2812</v>
@@ -5515,16 +5515,16 @@
         <v>344</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H30" s="1">
         <v>39212</v>
@@ -5644,9 +5644,9 @@
         <v>39212</v>
       </c>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>3598</v>
@@ -5655,16 +5655,16 @@
         <v>698</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H31" s="1">
         <v>39314</v>
@@ -5784,9 +5784,9 @@
         <v>39314</v>
       </c>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32">
         <v>4766</v>
@@ -5795,16 +5795,16 @@
         <v>1206</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H32" s="1">
         <v>39506</v>
@@ -5924,9 +5924,9 @@
         <v>39506</v>
       </c>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>4750</v>
@@ -5935,16 +5935,16 @@
         <v>1222</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H33" s="1">
         <v>39505</v>
@@ -6064,9 +6064,9 @@
         <v>39505</v>
       </c>
     </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34">
         <v>3688</v>
@@ -6075,16 +6075,16 @@
         <v>751</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E34">
         <v>105</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H34" s="1">
         <v>39331</v>
@@ -6204,9 +6204,9 @@
         <v>39331</v>
       </c>
     </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35">
         <v>4028</v>
@@ -6215,16 +6215,16 @@
         <v>842</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E35">
         <v>105</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H35" s="1">
         <v>39371</v>
@@ -6344,9 +6344,9 @@
         <v>39371</v>
       </c>
     </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36">
         <v>4030</v>
@@ -6355,16 +6355,16 @@
         <v>862</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E36">
         <v>105</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H36" s="1">
         <v>39371</v>
@@ -6484,9 +6484,9 @@
         <v>39371</v>
       </c>
     </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37">
         <v>4210</v>
@@ -6495,16 +6495,16 @@
         <v>1030</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37">
         <v>105</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H37" s="1">
         <v>39406</v>
@@ -6624,9 +6624,9 @@
         <v>39406</v>
       </c>
     </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38">
         <v>3222</v>
@@ -6635,16 +6635,16 @@
         <v>419</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38">
         <v>106</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H38" s="1">
         <v>39262</v>
@@ -6764,9 +6764,9 @@
         <v>39262</v>
       </c>
     </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39">
         <v>3794</v>
@@ -6775,16 +6775,16 @@
         <v>420</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E39">
         <v>106</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H39" s="1">
         <v>39349</v>
@@ -6904,9 +6904,9 @@
         <v>39349</v>
       </c>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40">
         <v>1328</v>
@@ -6915,16 +6915,16 @@
         <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E40">
         <v>107</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H40" s="1">
         <v>39023</v>
@@ -7044,9 +7044,9 @@
         <v>39023</v>
       </c>
     </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <v>1432</v>
@@ -7055,16 +7055,16 @@
         <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E41">
         <v>107</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H41" s="1">
         <v>39042</v>
@@ -7184,9 +7184,9 @@
         <v>39042</v>
       </c>
     </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42">
         <v>2474</v>
@@ -7195,16 +7195,16 @@
         <v>241</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E42">
         <v>107</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H42" s="1">
         <v>39168</v>
@@ -7324,9 +7324,9 @@
         <v>39168</v>
       </c>
     </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>2696</v>
@@ -7335,16 +7335,16 @@
         <v>362</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E43">
         <v>107</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H43" s="1">
         <v>39196</v>
@@ -7464,9 +7464,9 @@
         <v>39196</v>
       </c>
     </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>4414</v>
@@ -7475,16 +7475,16 @@
         <v>1080</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E44">
         <v>107</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H44" s="1">
         <v>39440</v>
@@ -7604,9 +7604,9 @@
         <v>39440</v>
       </c>
     </row>
-    <row r="45" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>4890</v>
@@ -7615,16 +7615,16 @@
         <v>1282</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E45">
         <v>107</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H45" s="1">
         <v>39521</v>
@@ -7744,9 +7744,9 @@
         <v>39521</v>
       </c>
     </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46">
         <v>4910</v>
@@ -7755,16 +7755,16 @@
         <v>1186</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E46">
         <v>109</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H46" s="1">
         <v>39527</v>
@@ -7884,9 +7884,9 @@
         <v>39527</v>
       </c>
     </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>5198</v>
@@ -7895,16 +7895,16 @@
         <v>1276</v>
       </c>
       <c r="D47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E47">
         <v>109</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H47" s="1">
         <v>39574</v>
@@ -8024,9 +8024,9 @@
         <v>39574</v>
       </c>
     </row>
-    <row r="48" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>2170</v>
@@ -8035,16 +8035,16 @@
         <v>169</v>
       </c>
       <c r="D48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E48">
         <v>110</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H48" s="1">
         <v>39140</v>
@@ -8164,9 +8164,9 @@
         <v>39140</v>
       </c>
     </row>
-    <row r="49" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>3054</v>
@@ -8175,16 +8175,16 @@
         <v>519</v>
       </c>
       <c r="D49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E49">
         <v>110</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H49" s="1">
         <v>39242</v>
@@ -8304,9 +8304,9 @@
         <v>39242</v>
       </c>
     </row>
-    <row r="50" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>3056</v>
@@ -8315,16 +8315,16 @@
         <v>520</v>
       </c>
       <c r="D50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E50">
         <v>110</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H50" s="1">
         <v>39242</v>
@@ -8444,9 +8444,9 @@
         <v>39242</v>
       </c>
     </row>
-    <row r="51" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>3064</v>
@@ -8455,16 +8455,16 @@
         <v>548</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E51">
         <v>110</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H51" s="1">
         <v>39246</v>
@@ -8584,9 +8584,9 @@
         <v>39246</v>
       </c>
     </row>
-    <row r="52" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>3362</v>
@@ -8595,16 +8595,16 @@
         <v>558</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E52">
         <v>110</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H52" s="1">
         <v>39287</v>
@@ -8724,9 +8724,9 @@
         <v>39287</v>
       </c>
     </row>
-    <row r="53" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>3364</v>
@@ -8735,16 +8735,16 @@
         <v>563</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E53">
         <v>110</v>
       </c>
       <c r="F53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H53" s="1">
         <v>39287</v>
@@ -8864,9 +8864,9 @@
         <v>39287</v>
       </c>
     </row>
-    <row r="54" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>3540</v>
@@ -8875,16 +8875,16 @@
         <v>658</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E54">
         <v>110</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H54" s="1">
         <v>39308</v>
@@ -9004,9 +9004,9 @@
         <v>39308</v>
       </c>
     </row>
-    <row r="55" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>3374</v>
@@ -9015,16 +9015,16 @@
         <v>359</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E55">
         <v>111</v>
       </c>
       <c r="F55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H55" s="1">
         <v>39289</v>
@@ -9144,9 +9144,9 @@
         <v>39289</v>
       </c>
     </row>
-    <row r="56" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56">
         <v>4522</v>
@@ -9155,16 +9155,16 @@
         <v>702</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E56">
         <v>111</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H56" s="1">
         <v>39469</v>
@@ -9284,9 +9284,9 @@
         <v>39469</v>
       </c>
     </row>
-    <row r="57" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57">
         <v>4514</v>
@@ -9295,16 +9295,16 @@
         <v>1117</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E57">
         <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H57" s="1">
         <v>39469</v>
@@ -9424,9 +9424,9 @@
         <v>39469</v>
       </c>
     </row>
-    <row r="58" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58">
         <v>5484</v>
@@ -9435,16 +9435,16 @@
         <v>1326</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E58">
         <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H58" s="1">
         <v>39630</v>
@@ -9564,9 +9564,9 @@
         <v>39630</v>
       </c>
     </row>
-    <row r="59" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59">
         <v>1978</v>
@@ -9575,16 +9575,16 @@
         <v>43</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E59">
         <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H59" s="1">
         <v>39120</v>
@@ -9704,9 +9704,9 @@
         <v>39120</v>
       </c>
     </row>
-    <row r="60" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60">
         <v>2178</v>
@@ -9715,16 +9715,16 @@
         <v>55</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E60">
         <v>3</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H60" s="1">
         <v>39141</v>
@@ -9844,9 +9844,9 @@
         <v>39141</v>
       </c>
     </row>
-    <row r="61" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61">
         <v>2062</v>
@@ -9855,16 +9855,16 @@
         <v>142</v>
       </c>
       <c r="D61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E61">
         <v>3</v>
       </c>
       <c r="F61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H61" s="1">
         <v>39132</v>
@@ -9984,9 +9984,9 @@
         <v>39132</v>
       </c>
     </row>
-    <row r="62" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B62">
         <v>5364</v>
@@ -9995,16 +9995,16 @@
         <v>1288</v>
       </c>
       <c r="D62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E62">
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H62" s="1">
         <v>39604</v>
@@ -10124,9 +10124,9 @@
         <v>39604</v>
       </c>
     </row>
-    <row r="63" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B63">
         <v>2268</v>
@@ -10135,16 +10135,16 @@
         <v>141</v>
       </c>
       <c r="D63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E63">
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H63" s="1">
         <v>39147</v>
@@ -10225,7 +10225,7 @@
         <v>1</v>
       </c>
       <c r="AL63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AM63">
         <v>-4</v>
@@ -10264,9 +10264,9 @@
         <v>39147</v>
       </c>
     </row>
-    <row r="64" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B64">
         <v>2358</v>
@@ -10275,16 +10275,16 @@
         <v>159</v>
       </c>
       <c r="D64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E64">
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H64" s="1">
         <v>39153</v>
@@ -10404,9 +10404,9 @@
         <v>39153</v>
       </c>
     </row>
-    <row r="65" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B65">
         <v>2594</v>
@@ -10415,16 +10415,16 @@
         <v>276</v>
       </c>
       <c r="D65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E65">
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H65" s="1">
         <v>39181</v>
@@ -10544,9 +10544,9 @@
         <v>39181</v>
       </c>
     </row>
-    <row r="66" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B66">
         <v>2776</v>
@@ -10555,16 +10555,16 @@
         <v>337</v>
       </c>
       <c r="D66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E66">
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H66" s="1">
         <v>39209</v>
@@ -10684,9 +10684,9 @@
         <v>39209</v>
       </c>
     </row>
-    <row r="67" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B67">
         <v>2918</v>
@@ -10695,16 +10695,16 @@
         <v>424</v>
       </c>
       <c r="D67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E67">
         <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H67" s="1">
         <v>39224</v>
@@ -10824,9 +10824,9 @@
         <v>39224</v>
       </c>
     </row>
-    <row r="68" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B68">
         <v>3586</v>
@@ -10835,16 +10835,16 @@
         <v>626</v>
       </c>
       <c r="D68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E68">
         <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H68" s="1">
         <v>39311</v>
@@ -10964,9 +10964,9 @@
         <v>39311</v>
       </c>
     </row>
-    <row r="69" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B69">
         <v>4352</v>
@@ -10975,16 +10975,16 @@
         <v>984</v>
       </c>
       <c r="D69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E69">
         <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H69" s="1">
         <v>39430</v>
@@ -11104,9 +11104,9 @@
         <v>39430</v>
       </c>
     </row>
-    <row r="70" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B70">
         <v>1918</v>
@@ -11115,16 +11115,16 @@
         <v>96</v>
       </c>
       <c r="D70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E70">
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H70" s="1">
         <v>39112</v>
@@ -11244,9 +11244,9 @@
         <v>39112</v>
       </c>
     </row>
-    <row r="71" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B71">
         <v>2090</v>
@@ -11255,16 +11255,16 @@
         <v>130</v>
       </c>
       <c r="D71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E71">
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H71" s="1">
         <v>39134</v>
@@ -11384,9 +11384,9 @@
         <v>39134</v>
       </c>
     </row>
-    <row r="72" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B72">
         <v>4306</v>
@@ -11395,16 +11395,16 @@
         <v>1097</v>
       </c>
       <c r="D72" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E72">
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H72" s="1">
         <v>39423</v>
@@ -11524,9 +11524,9 @@
         <v>39423</v>
       </c>
     </row>
-    <row r="73" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B73">
         <v>4828</v>
@@ -11535,16 +11535,16 @@
         <v>1351</v>
       </c>
       <c r="D73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E73">
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H73" s="1">
         <v>39513</v>
@@ -11664,9 +11664,9 @@
         <v>39513</v>
       </c>
     </row>
-    <row r="74" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B74">
         <v>1302</v>
@@ -11675,16 +11675,16 @@
         <v>31</v>
       </c>
       <c r="D74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E74">
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H74" s="1">
         <v>39021</v>
@@ -11804,9 +11804,9 @@
         <v>39021</v>
       </c>
     </row>
-    <row r="75" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B75">
         <v>1382</v>
@@ -11815,16 +11815,16 @@
         <v>42</v>
       </c>
       <c r="D75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E75">
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H75" s="1">
         <v>39030</v>
@@ -11944,9 +11944,9 @@
         <v>39030</v>
       </c>
     </row>
-    <row r="76" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B76">
         <v>1674</v>
@@ -11955,16 +11955,16 @@
         <v>58</v>
       </c>
       <c r="D76" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E76">
         <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H76" s="1">
         <v>39072</v>
@@ -12084,9 +12084,9 @@
         <v>39072</v>
       </c>
     </row>
-    <row r="77" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B77">
         <v>1544</v>
@@ -12095,16 +12095,16 @@
         <v>61</v>
       </c>
       <c r="D77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E77">
         <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H77" s="1">
         <v>39058</v>
@@ -12224,9 +12224,9 @@
         <v>39058</v>
       </c>
     </row>
-    <row r="78" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B78">
         <v>1866</v>
@@ -12235,16 +12235,16 @@
         <v>81</v>
       </c>
       <c r="D78" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E78">
         <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H78" s="1">
         <v>39101</v>
@@ -12364,9 +12364,9 @@
         <v>39101</v>
       </c>
     </row>
-    <row r="79" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B79">
         <v>2514</v>
@@ -12375,16 +12375,16 @@
         <v>126</v>
       </c>
       <c r="D79" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E79">
         <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H79" s="1">
         <v>39171</v>
@@ -12504,9 +12504,9 @@
         <v>39171</v>
       </c>
     </row>
-    <row r="80" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B80">
         <v>2210</v>
@@ -12515,16 +12515,16 @@
         <v>217</v>
       </c>
       <c r="D80" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E80">
         <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H80" s="1">
         <v>39143</v>
@@ -12644,9 +12644,9 @@
         <v>39143</v>
       </c>
     </row>
-    <row r="81" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B81">
         <v>2516</v>
@@ -12655,16 +12655,16 @@
         <v>331</v>
       </c>
       <c r="D81" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E81">
         <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H81" s="1">
         <v>39171</v>
@@ -12784,9 +12784,9 @@
         <v>39171</v>
       </c>
     </row>
-    <row r="82" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B82">
         <v>2480</v>
@@ -12795,16 +12795,16 @@
         <v>376</v>
       </c>
       <c r="D82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E82">
         <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H82" s="1">
         <v>39169</v>
@@ -12924,9 +12924,9 @@
         <v>39169</v>
       </c>
     </row>
-    <row r="83" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B83">
         <v>2672</v>
@@ -12935,16 +12935,16 @@
         <v>388</v>
       </c>
       <c r="D83" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E83">
         <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H83" s="1">
         <v>39191</v>
@@ -13064,9 +13064,9 @@
         <v>39191</v>
       </c>
     </row>
-    <row r="84" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B84">
         <v>3366</v>
@@ -13075,16 +13075,16 @@
         <v>625</v>
       </c>
       <c r="D84" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E84">
         <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H84" s="1">
         <v>39287</v>
@@ -13204,9 +13204,9 @@
         <v>39287</v>
       </c>
     </row>
-    <row r="85" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B85">
         <v>3912</v>
@@ -13215,16 +13215,16 @@
         <v>887</v>
       </c>
       <c r="D85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E85">
         <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H85" s="1">
         <v>39360</v>
@@ -13344,9 +13344,9 @@
         <v>39360</v>
       </c>
     </row>
-    <row r="86" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B86">
         <v>4074</v>
@@ -13355,16 +13355,16 @@
         <v>926</v>
       </c>
       <c r="D86" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E86">
         <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H86" s="1">
         <v>39380</v>
@@ -13484,9 +13484,9 @@
         <v>39380</v>
       </c>
     </row>
-    <row r="87" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B87">
         <v>4150</v>
@@ -13495,16 +13495,16 @@
         <v>1046</v>
       </c>
       <c r="D87" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E87">
         <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H87" s="1">
         <v>39395</v>
@@ -13624,9 +13624,9 @@
         <v>39395</v>
       </c>
     </row>
-    <row r="88" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B88">
         <v>4464</v>
@@ -13635,16 +13635,16 @@
         <v>1190</v>
       </c>
       <c r="D88" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E88">
         <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H88" s="1">
         <v>39461</v>
@@ -13764,9 +13764,9 @@
         <v>39461</v>
       </c>
     </row>
-    <row r="89" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B89">
         <v>4078</v>
@@ -13775,16 +13775,16 @@
         <v>985</v>
       </c>
       <c r="D89" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E89">
         <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H89" s="1">
         <v>39380</v>
@@ -13904,9 +13904,9 @@
         <v>39380</v>
       </c>
     </row>
-    <row r="90" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B90">
         <v>4222</v>
@@ -13915,16 +13915,16 @@
         <v>1063</v>
       </c>
       <c r="D90" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E90">
         <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H90" s="1">
         <v>39407</v>
@@ -14044,9 +14044,9 @@
         <v>39407</v>
       </c>
     </row>
-    <row r="91" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B91">
         <v>1876</v>
@@ -14055,16 +14055,16 @@
         <v>74</v>
       </c>
       <c r="D91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E91">
         <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G91" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H91" s="1">
         <v>39105</v>
@@ -14184,9 +14184,9 @@
         <v>39105</v>
       </c>
     </row>
-    <row r="92" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B92">
         <v>2120</v>
@@ -14195,16 +14195,16 @@
         <v>116</v>
       </c>
       <c r="D92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E92">
         <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H92" s="1">
         <v>39135</v>
@@ -14324,9 +14324,9 @@
         <v>39135</v>
       </c>
     </row>
-    <row r="93" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B93">
         <v>2122</v>
@@ -14335,16 +14335,16 @@
         <v>118</v>
       </c>
       <c r="D93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E93">
         <v>13</v>
       </c>
       <c r="F93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H93" s="1">
         <v>39135</v>
@@ -14464,9 +14464,9 @@
         <v>39135</v>
       </c>
     </row>
-    <row r="94" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B94">
         <v>2138</v>
@@ -14475,16 +14475,16 @@
         <v>120</v>
       </c>
       <c r="D94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E94">
         <v>13</v>
       </c>
       <c r="F94" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G94" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H94" s="1">
         <v>39135</v>
@@ -14604,9 +14604,9 @@
         <v>39135</v>
       </c>
     </row>
-    <row r="95" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B95">
         <v>2592</v>
@@ -14615,16 +14615,16 @@
         <v>256</v>
       </c>
       <c r="D95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E95">
         <v>13</v>
       </c>
       <c r="F95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H95" s="1">
         <v>39181</v>
@@ -14744,9 +14744,9 @@
         <v>39181</v>
       </c>
     </row>
-    <row r="96" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B96">
         <v>2756</v>
@@ -14755,16 +14755,16 @@
         <v>307</v>
       </c>
       <c r="D96" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E96">
         <v>13</v>
       </c>
       <c r="F96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H96" s="1">
         <v>39205</v>
@@ -14884,9 +14884,9 @@
         <v>39205</v>
       </c>
     </row>
-    <row r="97" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B97">
         <v>2942</v>
@@ -14895,16 +14895,16 @@
         <v>403</v>
       </c>
       <c r="D97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E97">
         <v>13</v>
       </c>
       <c r="F97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H97" s="1">
         <v>39227</v>
@@ -15024,9 +15024,9 @@
         <v>39227</v>
       </c>
     </row>
-    <row r="98" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B98">
         <v>2934</v>
@@ -15035,16 +15035,16 @@
         <v>408</v>
       </c>
       <c r="D98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E98">
         <v>13</v>
       </c>
       <c r="F98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H98" s="1">
         <v>39226</v>
@@ -15164,9 +15164,9 @@
         <v>39226</v>
       </c>
     </row>
-    <row r="99" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B99">
         <v>3242</v>
@@ -15175,16 +15175,16 @@
         <v>644</v>
       </c>
       <c r="D99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E99">
         <v>13</v>
       </c>
       <c r="F99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H99" s="1">
         <v>39266</v>
@@ -15304,9 +15304,9 @@
         <v>39266</v>
       </c>
     </row>
-    <row r="100" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B100">
         <v>4004</v>
@@ -15315,16 +15315,16 @@
         <v>835</v>
       </c>
       <c r="D100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E100">
         <v>13</v>
       </c>
       <c r="F100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H100" s="1">
         <v>39370</v>
@@ -15444,9 +15444,9 @@
         <v>39370</v>
       </c>
     </row>
-    <row r="101" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B101">
         <v>4266</v>
@@ -15455,16 +15455,16 @@
         <v>1045</v>
       </c>
       <c r="D101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E101">
         <v>13</v>
       </c>
       <c r="F101" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G101" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H101" s="1">
         <v>39416</v>
@@ -15584,9 +15584,9 @@
         <v>39416</v>
       </c>
     </row>
-    <row r="102" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B102">
         <v>4888</v>
@@ -15595,16 +15595,16 @@
         <v>1387</v>
       </c>
       <c r="D102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E102">
         <v>13</v>
       </c>
       <c r="F102" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G102" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H102" s="1">
         <v>39520</v>
@@ -15724,9 +15724,9 @@
         <v>39520</v>
       </c>
     </row>
-    <row r="103" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B103">
         <v>3748</v>
@@ -15735,16 +15735,16 @@
         <v>824</v>
       </c>
       <c r="D103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E103">
         <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H103" s="1">
         <v>39339</v>
@@ -15864,9 +15864,9 @@
         <v>39339</v>
       </c>
     </row>
-    <row r="104" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B104">
         <v>4256</v>
@@ -15875,16 +15875,16 @@
         <v>843</v>
       </c>
       <c r="D104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E104">
         <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G104" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H104" s="1">
         <v>39415</v>
@@ -16004,9 +16004,9 @@
         <v>39415</v>
       </c>
     </row>
-    <row r="105" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B105">
         <v>3734</v>
@@ -16015,16 +16015,16 @@
         <v>845</v>
       </c>
       <c r="D105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E105">
         <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G105" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H105" s="1">
         <v>39337</v>
@@ -16144,9 +16144,9 @@
         <v>39337</v>
       </c>
     </row>
-    <row r="106" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B106">
         <v>4044</v>
@@ -16155,16 +16155,16 @@
         <v>878</v>
       </c>
       <c r="D106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E106">
         <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G106" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H106" s="1">
         <v>39373</v>
@@ -16284,9 +16284,9 @@
         <v>39373</v>
       </c>
     </row>
-    <row r="107" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B107">
         <v>4620</v>
@@ -16295,16 +16295,16 @@
         <v>914</v>
       </c>
       <c r="D107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E107">
         <v>14</v>
       </c>
       <c r="F107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H107" s="1">
         <v>39483</v>
@@ -16424,9 +16424,9 @@
         <v>39483</v>
       </c>
     </row>
-    <row r="108" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B108">
         <v>4490</v>
@@ -16435,16 +16435,16 @@
         <v>1218</v>
       </c>
       <c r="D108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E108">
         <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G108" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H108" s="1">
         <v>39463</v>
@@ -16564,9 +16564,9 @@
         <v>39463</v>
       </c>
     </row>
-    <row r="109" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B109">
         <v>5122</v>
@@ -16575,16 +16575,16 @@
         <v>1318</v>
       </c>
       <c r="D109" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E109">
         <v>14</v>
       </c>
       <c r="F109" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G109" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H109" s="1">
         <v>39562</v>
@@ -16704,9 +16704,9 @@
         <v>39562</v>
       </c>
     </row>
-    <row r="110" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B110">
         <v>3398</v>
@@ -16715,16 +16715,16 @@
         <v>618</v>
       </c>
       <c r="D110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E110">
         <v>15</v>
       </c>
       <c r="F110" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G110" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H110" s="1">
         <v>39294</v>
@@ -16844,9 +16844,9 @@
         <v>39294</v>
       </c>
     </row>
-    <row r="111" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B111">
         <v>3830</v>
@@ -16855,16 +16855,16 @@
         <v>830</v>
       </c>
       <c r="D111" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E111">
         <v>15</v>
       </c>
       <c r="F111" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G111" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H111" s="1">
         <v>39352</v>
@@ -16984,9 +16984,9 @@
         <v>39352</v>
       </c>
     </row>
-    <row r="112" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B112">
         <v>3846</v>
@@ -16995,16 +16995,16 @@
         <v>867</v>
       </c>
       <c r="D112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E112">
         <v>15</v>
       </c>
       <c r="F112" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G112" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H112" s="1">
         <v>39353</v>
@@ -17124,9 +17124,9 @@
         <v>39353</v>
       </c>
     </row>
-    <row r="113" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B113">
         <v>4450</v>
@@ -17135,16 +17135,16 @@
         <v>1066</v>
       </c>
       <c r="D113" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E113">
         <v>15</v>
       </c>
       <c r="F113" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G113" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H113" s="1">
         <v>39456</v>
@@ -17264,9 +17264,9 @@
         <v>39456</v>
       </c>
     </row>
-    <row r="114" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B114">
         <v>2478</v>
@@ -17275,16 +17275,16 @@
         <v>214</v>
       </c>
       <c r="D114" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E114">
         <v>16</v>
       </c>
       <c r="F114" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G114" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H114" s="1">
         <v>39169</v>
@@ -17404,9 +17404,9 @@
         <v>39169</v>
       </c>
     </row>
-    <row r="115" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B115">
         <v>3058</v>
@@ -17415,16 +17415,16 @@
         <v>479</v>
       </c>
       <c r="D115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E115">
         <v>16</v>
       </c>
       <c r="F115" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G115" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H115" s="1">
         <v>39244</v>
@@ -17544,9 +17544,9 @@
         <v>39244</v>
       </c>
     </row>
-    <row r="116" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B116">
         <v>3342</v>
@@ -17555,16 +17555,16 @@
         <v>677</v>
       </c>
       <c r="D116" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E116">
         <v>16</v>
       </c>
       <c r="F116" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G116" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H116" s="1">
         <v>39281</v>
@@ -17684,9 +17684,9 @@
         <v>39281</v>
       </c>
     </row>
-    <row r="117" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B117">
         <v>4572</v>
@@ -17695,16 +17695,16 @@
         <v>1169</v>
       </c>
       <c r="D117" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E117">
         <v>16</v>
       </c>
       <c r="F117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H117" s="1">
         <v>39477</v>
@@ -17824,9 +17824,9 @@
         <v>39477</v>
       </c>
     </row>
-    <row r="118" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B118">
         <v>3100</v>
@@ -17835,16 +17835,16 @@
         <v>514</v>
       </c>
       <c r="D118" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E118">
         <v>52</v>
       </c>
       <c r="F118" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G118" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H118" s="1">
         <v>39252</v>
@@ -17964,9 +17964,9 @@
         <v>39252</v>
       </c>
     </row>
-    <row r="119" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B119">
         <v>3494</v>
@@ -17975,16 +17975,16 @@
         <v>734</v>
       </c>
       <c r="D119" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E119">
         <v>52</v>
       </c>
       <c r="F119" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G119" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H119" s="1">
         <v>39303</v>
@@ -18104,9 +18104,9 @@
         <v>39303</v>
       </c>
     </row>
-    <row r="120" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B120">
         <v>3506</v>
@@ -18115,16 +18115,16 @@
         <v>741</v>
       </c>
       <c r="D120" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E120">
         <v>52</v>
       </c>
       <c r="F120" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G120" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H120" s="1">
         <v>39304</v>
@@ -18244,9 +18244,9 @@
         <v>39304</v>
       </c>
     </row>
-    <row r="121" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B121">
         <v>3964</v>
@@ -18255,16 +18255,16 @@
         <v>906</v>
       </c>
       <c r="D121" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E121">
         <v>52</v>
       </c>
       <c r="F121" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G121" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H121" s="1">
         <v>39365</v>
@@ -18384,9 +18384,9 @@
         <v>39365</v>
       </c>
     </row>
-    <row r="122" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B122">
         <v>3994</v>
@@ -18395,16 +18395,16 @@
         <v>920</v>
       </c>
       <c r="D122" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E122">
         <v>52</v>
       </c>
       <c r="F122" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G122" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H122" s="1">
         <v>39367</v>
@@ -18524,9 +18524,9 @@
         <v>39367</v>
       </c>
     </row>
-    <row r="123" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B123">
         <v>3990</v>
@@ -18535,16 +18535,16 @@
         <v>922</v>
       </c>
       <c r="D123" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E123">
         <v>52</v>
       </c>
       <c r="F123" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G123" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H123" s="1">
         <v>39367</v>
@@ -18664,9 +18664,9 @@
         <v>39367</v>
       </c>
     </row>
-    <row r="124" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B124">
         <v>3982</v>
@@ -18675,16 +18675,16 @@
         <v>923</v>
       </c>
       <c r="D124" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E124">
         <v>52</v>
       </c>
       <c r="F124" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G124" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H124" s="1">
         <v>39367</v>
@@ -18804,9 +18804,9 @@
         <v>39367</v>
       </c>
     </row>
-    <row r="125" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B125">
         <v>4244</v>
@@ -18815,16 +18815,16 @@
         <v>1016</v>
       </c>
       <c r="D125" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E125">
         <v>52</v>
       </c>
       <c r="F125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H125" s="1">
         <v>39414</v>
@@ -18944,9 +18944,9 @@
         <v>39414</v>
       </c>
     </row>
-    <row r="126" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B126">
         <v>4258</v>
@@ -18955,16 +18955,16 @@
         <v>1098</v>
       </c>
       <c r="D126" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E126">
         <v>52</v>
       </c>
       <c r="F126" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G126" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H126" s="1">
         <v>39416</v>
@@ -19084,9 +19084,9 @@
         <v>39416</v>
       </c>
     </row>
-    <row r="127" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B127">
         <v>4260</v>
@@ -19095,16 +19095,16 @@
         <v>1116</v>
       </c>
       <c r="D127" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E127">
         <v>52</v>
       </c>
       <c r="F127" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G127" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H127" s="1">
         <v>39416</v>
@@ -19224,9 +19224,9 @@
         <v>39416</v>
       </c>
     </row>
-    <row r="128" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B128">
         <v>2202</v>
@@ -19235,16 +19235,16 @@
         <v>156</v>
       </c>
       <c r="D128" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E128">
         <v>6</v>
       </c>
       <c r="F128" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G128" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H128" s="1">
         <v>39142</v>
@@ -19364,9 +19364,9 @@
         <v>39142</v>
       </c>
     </row>
-    <row r="129" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B129">
         <v>2198</v>
@@ -19375,16 +19375,16 @@
         <v>204</v>
       </c>
       <c r="D129" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E129">
         <v>6</v>
       </c>
       <c r="F129" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G129" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H129" s="1">
         <v>39142</v>
@@ -19504,9 +19504,9 @@
         <v>39142</v>
       </c>
     </row>
-    <row r="130" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B130">
         <v>2894</v>
@@ -19515,16 +19515,16 @@
         <v>292</v>
       </c>
       <c r="D130" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E130">
         <v>6</v>
       </c>
       <c r="F130" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G130" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H130" s="1">
         <v>39219</v>
@@ -19644,9 +19644,9 @@
         <v>39219</v>
       </c>
     </row>
-    <row r="131" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B131">
         <v>4338</v>
@@ -19655,16 +19655,16 @@
         <v>555</v>
       </c>
       <c r="D131" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E131">
         <v>6</v>
       </c>
       <c r="F131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H131" s="1">
         <v>39428</v>
@@ -19784,9 +19784,9 @@
         <v>39428</v>
       </c>
     </row>
-    <row r="132" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B132">
         <v>4564</v>
@@ -19795,16 +19795,16 @@
         <v>997</v>
       </c>
       <c r="D132" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E132">
         <v>6</v>
       </c>
       <c r="F132" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G132" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H132" s="1">
         <v>39476</v>
@@ -19924,9 +19924,9 @@
         <v>39476</v>
       </c>
     </row>
-    <row r="133" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B133">
         <v>3352</v>
@@ -19935,16 +19935,16 @@
         <v>672</v>
       </c>
       <c r="D133" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E133">
         <v>17</v>
       </c>
       <c r="F133" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G133" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H133" s="1">
         <v>39282</v>
@@ -20064,9 +20064,9 @@
         <v>39282</v>
       </c>
     </row>
-    <row r="134" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B134">
         <v>3350</v>
@@ -20075,16 +20075,16 @@
         <v>673</v>
       </c>
       <c r="D134" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E134">
         <v>17</v>
       </c>
       <c r="F134" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G134" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H134" s="1">
         <v>39282</v>
@@ -20204,9 +20204,9 @@
         <v>39282</v>
       </c>
     </row>
-    <row r="135" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B135">
         <v>3826</v>
@@ -20215,16 +20215,16 @@
         <v>813</v>
       </c>
       <c r="D135" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E135">
         <v>17</v>
       </c>
       <c r="F135" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G135" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H135" s="1">
         <v>39352</v>
@@ -20344,9 +20344,9 @@
         <v>39352</v>
       </c>
     </row>
-    <row r="136" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B136">
         <v>4206</v>
@@ -20355,16 +20355,16 @@
         <v>869</v>
       </c>
       <c r="D136" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E136">
         <v>17</v>
       </c>
       <c r="F136" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G136" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H136" s="1">
         <v>39406</v>
@@ -20484,9 +20484,9 @@
         <v>39406</v>
       </c>
     </row>
-    <row r="137" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B137">
         <v>4190</v>
@@ -20495,16 +20495,16 @@
         <v>945</v>
       </c>
       <c r="D137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E137">
         <v>17</v>
       </c>
       <c r="F137" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G137" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H137" s="1">
         <v>39402</v>
@@ -20624,9 +20624,9 @@
         <v>39402</v>
       </c>
     </row>
-    <row r="138" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B138">
         <v>2648</v>
@@ -20635,16 +20635,16 @@
         <v>150</v>
       </c>
       <c r="D138" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E138">
         <v>18</v>
       </c>
       <c r="F138" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G138" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H138" s="1">
         <v>39189</v>
@@ -20764,9 +20764,9 @@
         <v>39189</v>
       </c>
     </row>
-    <row r="139" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B139">
         <v>2768</v>
@@ -20775,16 +20775,16 @@
         <v>303</v>
       </c>
       <c r="D139" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E139">
         <v>18</v>
       </c>
       <c r="F139" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G139" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H139" s="1">
         <v>39209</v>
@@ -20904,9 +20904,9 @@
         <v>39209</v>
       </c>
     </row>
-    <row r="140" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B140">
         <v>3208</v>
@@ -20915,16 +20915,16 @@
         <v>377</v>
       </c>
       <c r="D140" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E140">
         <v>18</v>
       </c>
       <c r="F140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H140" s="1">
         <v>39260</v>
@@ -21044,9 +21044,9 @@
         <v>39260</v>
       </c>
     </row>
-    <row r="141" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B141">
         <v>3210</v>
@@ -21055,16 +21055,16 @@
         <v>454</v>
       </c>
       <c r="D141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E141">
         <v>18</v>
       </c>
       <c r="F141" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G141" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H141" s="1">
         <v>39260</v>
@@ -21184,9 +21184,9 @@
         <v>39260</v>
       </c>
     </row>
-    <row r="142" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B142">
         <v>3234</v>
@@ -21195,16 +21195,16 @@
         <v>467</v>
       </c>
       <c r="D142" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E142">
         <v>18</v>
       </c>
       <c r="F142" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G142" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H142" s="1">
         <v>39265</v>
@@ -21324,9 +21324,9 @@
         <v>39265</v>
       </c>
     </row>
-    <row r="143" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B143">
         <v>3560</v>
@@ -21335,16 +21335,16 @@
         <v>501</v>
       </c>
       <c r="D143" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E143">
         <v>18</v>
       </c>
       <c r="F143" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G143" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H143" s="1">
         <v>39310</v>
@@ -21464,9 +21464,9 @@
         <v>39310</v>
       </c>
     </row>
-    <row r="144" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B144">
         <v>3562</v>
@@ -21475,16 +21475,16 @@
         <v>539</v>
       </c>
       <c r="D144" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E144">
         <v>18</v>
       </c>
       <c r="F144" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G144" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H144" s="1">
         <v>39310</v>
@@ -21604,9 +21604,9 @@
         <v>39310</v>
       </c>
     </row>
-    <row r="145" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B145">
         <v>3134</v>
@@ -21615,16 +21615,16 @@
         <v>552</v>
       </c>
       <c r="D145" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E145">
         <v>18</v>
       </c>
       <c r="F145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H145" s="1">
         <v>39255</v>
@@ -21744,9 +21744,9 @@
         <v>39255</v>
       </c>
     </row>
-    <row r="146" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B146">
         <v>4408</v>
@@ -21755,16 +21755,16 @@
         <v>588</v>
       </c>
       <c r="D146" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E146">
         <v>18</v>
       </c>
       <c r="F146" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G146" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H146" s="1">
         <v>39437</v>
@@ -21884,9 +21884,9 @@
         <v>39437</v>
       </c>
     </row>
-    <row r="147" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B147">
         <v>4400</v>
@@ -21895,16 +21895,16 @@
         <v>1078</v>
       </c>
       <c r="D147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E147">
         <v>18</v>
       </c>
       <c r="F147" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G147" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H147" s="1">
         <v>39437</v>
@@ -22024,9 +22024,9 @@
         <v>39437</v>
       </c>
     </row>
-    <row r="148" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B148">
         <v>1930</v>
@@ -22035,16 +22035,16 @@
         <v>125</v>
       </c>
       <c r="D148" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E148">
         <v>20</v>
       </c>
       <c r="F148" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G148" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H148" s="1">
         <v>39113</v>
@@ -22164,9 +22164,9 @@
         <v>39113</v>
       </c>
     </row>
-    <row r="149" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B149">
         <v>2562</v>
@@ -22175,16 +22175,16 @@
         <v>262</v>
       </c>
       <c r="D149" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E149">
         <v>20</v>
       </c>
       <c r="F149" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G149" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H149" s="1">
         <v>39177</v>
@@ -22304,9 +22304,9 @@
         <v>39177</v>
       </c>
     </row>
-    <row r="150" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B150">
         <v>2770</v>
@@ -22315,16 +22315,16 @@
         <v>314</v>
       </c>
       <c r="D150" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E150">
         <v>20</v>
       </c>
       <c r="F150" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G150" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H150" s="1">
         <v>39209</v>
@@ -22444,9 +22444,9 @@
         <v>39209</v>
       </c>
     </row>
-    <row r="151" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B151">
         <v>3510</v>
@@ -22455,16 +22455,16 @@
         <v>679</v>
       </c>
       <c r="D151" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E151">
         <v>20</v>
       </c>
       <c r="F151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H151" s="1">
         <v>39307</v>
@@ -22584,9 +22584,9 @@
         <v>39307</v>
       </c>
     </row>
-    <row r="152" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B152">
         <v>4334</v>
@@ -22595,16 +22595,16 @@
         <v>1010</v>
       </c>
       <c r="D152" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E152">
         <v>20</v>
       </c>
       <c r="F152" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G152" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H152" s="1">
         <v>39428</v>
@@ -22724,9 +22724,9 @@
         <v>39428</v>
       </c>
     </row>
-    <row r="153" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B153">
         <v>5632</v>
@@ -22735,16 +22735,16 @@
         <v>1418</v>
       </c>
       <c r="D153" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E153">
         <v>20</v>
       </c>
       <c r="F153" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G153" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H153" s="1">
         <v>39668</v>
@@ -22864,9 +22864,9 @@
         <v>39668</v>
       </c>
     </row>
-    <row r="154" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B154">
         <v>5816</v>
@@ -22875,16 +22875,16 @@
         <v>1425</v>
       </c>
       <c r="D154" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E154">
         <v>20</v>
       </c>
       <c r="F154" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G154" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H154" s="1">
         <v>39713</v>
@@ -23004,9 +23004,9 @@
         <v>39713</v>
       </c>
     </row>
-    <row r="155" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B155">
         <v>4348</v>
@@ -23015,16 +23015,16 @@
         <v>1072</v>
       </c>
       <c r="D155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E155">
         <v>56</v>
       </c>
       <c r="F155" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G155" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H155" s="1">
         <v>39429</v>
@@ -23144,9 +23144,9 @@
         <v>39429</v>
       </c>
     </row>
-    <row r="156" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B156">
         <v>5210</v>
@@ -23155,16 +23155,16 @@
         <v>1123</v>
       </c>
       <c r="D156" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E156">
         <v>56</v>
       </c>
       <c r="F156" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G156" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H156" s="1">
         <v>39575</v>
@@ -23284,9 +23284,9 @@
         <v>39575</v>
       </c>
     </row>
-    <row r="157" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B157">
         <v>4660</v>
@@ -23295,16 +23295,16 @@
         <v>1131</v>
       </c>
       <c r="D157" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E157">
         <v>56</v>
       </c>
       <c r="F157" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G157" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H157" s="1">
         <v>39490</v>
@@ -23424,9 +23424,9 @@
         <v>39490</v>
       </c>
     </row>
-    <row r="158" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B158">
         <v>5508</v>
@@ -23435,16 +23435,16 @@
         <v>1331</v>
       </c>
       <c r="D158" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E158">
         <v>56</v>
       </c>
       <c r="F158" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G158" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H158" s="1">
         <v>39637</v>
@@ -23564,9 +23564,9 @@
         <v>39637</v>
       </c>
     </row>
-    <row r="159" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B159">
         <v>4012</v>
@@ -23575,16 +23575,16 @@
         <v>671</v>
       </c>
       <c r="D159" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E159">
         <v>57</v>
       </c>
       <c r="F159" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G159" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H159" s="1">
         <v>39370</v>
@@ -23704,9 +23704,9 @@
         <v>39370</v>
       </c>
     </row>
-    <row r="160" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B160">
         <v>4372</v>
@@ -23715,16 +23715,16 @@
         <v>951</v>
       </c>
       <c r="D160" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E160">
         <v>57</v>
       </c>
       <c r="F160" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G160" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H160" s="1">
         <v>39434</v>
@@ -23844,9 +23844,9 @@
         <v>39434</v>
       </c>
     </row>
-    <row r="161" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B161">
         <v>4496</v>
@@ -23855,16 +23855,16 @@
         <v>952</v>
       </c>
       <c r="D161" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E161">
         <v>57</v>
       </c>
       <c r="F161" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G161" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H161" s="1">
         <v>39463</v>
@@ -23984,9 +23984,9 @@
         <v>39463</v>
       </c>
     </row>
-    <row r="162" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B162">
         <v>4708</v>
@@ -23995,16 +23995,16 @@
         <v>1250</v>
       </c>
       <c r="D162" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E162">
         <v>57</v>
       </c>
       <c r="F162" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G162" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H162" s="1">
         <v>39495</v>
@@ -24124,9 +24124,9 @@
         <v>39495</v>
       </c>
     </row>
-    <row r="163" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B163">
         <v>5866</v>
@@ -24135,16 +24135,16 @@
         <v>1251</v>
       </c>
       <c r="D163" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E163">
         <v>57</v>
       </c>
       <c r="F163" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G163" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H163" s="1">
         <v>39721</v>
@@ -24264,9 +24264,9 @@
         <v>39721</v>
       </c>
     </row>
-    <row r="164" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B164">
         <v>5862</v>
@@ -24275,16 +24275,16 @@
         <v>1346</v>
       </c>
       <c r="D164" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E164">
         <v>57</v>
       </c>
       <c r="F164" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G164" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H164" s="1">
         <v>39721</v>
@@ -24404,9 +24404,9 @@
         <v>39721</v>
       </c>
     </row>
-    <row r="165" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B165">
         <v>5864</v>
@@ -24415,16 +24415,16 @@
         <v>1352</v>
       </c>
       <c r="D165" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E165">
         <v>57</v>
       </c>
       <c r="F165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H165" s="1">
         <v>39721</v>
@@ -24544,9 +24544,9 @@
         <v>39721</v>
       </c>
     </row>
-    <row r="166" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B166">
         <v>3300</v>
@@ -24555,16 +24555,16 @@
         <v>389</v>
       </c>
       <c r="D166" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E166">
         <v>58</v>
       </c>
       <c r="F166" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G166" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H166" s="1">
         <v>39274</v>
@@ -24684,9 +24684,9 @@
         <v>39274</v>
       </c>
     </row>
-    <row r="167" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B167">
         <v>4948</v>
@@ -24695,16 +24695,16 @@
         <v>919</v>
       </c>
       <c r="D167" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E167">
         <v>58</v>
       </c>
       <c r="F167" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G167" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H167" s="1">
         <v>39532</v>
@@ -24824,9 +24824,9 @@
         <v>39532</v>
       </c>
     </row>
-    <row r="168" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B168">
         <v>4060</v>
@@ -24835,16 +24835,16 @@
         <v>934</v>
       </c>
       <c r="D168" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E168">
         <v>62</v>
       </c>
       <c r="F168" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G168" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H168" s="1">
         <v>39378</v>
@@ -24964,9 +24964,9 @@
         <v>39378</v>
       </c>
     </row>
-    <row r="169" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B169">
         <v>4744</v>
@@ -24975,16 +24975,16 @@
         <v>1269</v>
       </c>
       <c r="D169" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E169">
         <v>62</v>
       </c>
       <c r="F169" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G169" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H169" s="1">
         <v>39505</v>
@@ -25104,9 +25104,9 @@
         <v>39505</v>
       </c>
     </row>
-    <row r="170" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B170">
         <v>1910</v>
@@ -25115,16 +25115,16 @@
         <v>56</v>
       </c>
       <c r="D170" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E170">
         <v>32</v>
       </c>
       <c r="F170" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G170" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H170" s="1">
         <v>39111</v>
@@ -25244,9 +25244,9 @@
         <v>39111</v>
       </c>
     </row>
-    <row r="171" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B171">
         <v>1912</v>
@@ -25255,16 +25255,16 @@
         <v>59</v>
       </c>
       <c r="D171" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E171">
         <v>32</v>
       </c>
       <c r="F171" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G171" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H171" s="1">
         <v>39111</v>
@@ -25384,9 +25384,9 @@
         <v>39111</v>
       </c>
     </row>
-    <row r="172" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B172">
         <v>4472</v>
@@ -25395,16 +25395,16 @@
         <v>257</v>
       </c>
       <c r="D172" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E172">
         <v>32</v>
       </c>
       <c r="F172" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G172" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H172" s="1">
         <v>39462</v>
@@ -25524,9 +25524,9 @@
         <v>39462</v>
       </c>
     </row>
-    <row r="173" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B173">
         <v>2612</v>
@@ -25535,16 +25535,16 @@
         <v>127</v>
       </c>
       <c r="D173" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E173">
         <v>33</v>
       </c>
       <c r="F173" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G173" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H173" s="1">
         <v>39183</v>
@@ -25664,9 +25664,9 @@
         <v>39183</v>
       </c>
     </row>
-    <row r="174" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B174">
         <v>3268</v>
@@ -25675,16 +25675,16 @@
         <v>210</v>
       </c>
       <c r="D174" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E174">
         <v>33</v>
       </c>
       <c r="F174" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G174" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H174" s="1">
         <v>39269</v>
@@ -25804,9 +25804,9 @@
         <v>39269</v>
       </c>
     </row>
-    <row r="175" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B175">
         <v>3472</v>
@@ -25815,16 +25815,16 @@
         <v>401</v>
       </c>
       <c r="D175" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E175">
         <v>33</v>
       </c>
       <c r="F175" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G175" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H175" s="1">
         <v>39302</v>
@@ -25944,9 +25944,9 @@
         <v>39302</v>
       </c>
     </row>
-    <row r="176" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B176">
         <v>3466</v>
@@ -25955,16 +25955,16 @@
         <v>473</v>
       </c>
       <c r="D176" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E176">
         <v>33</v>
       </c>
       <c r="F176" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G176" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H176" s="1">
         <v>39302</v>
@@ -26084,9 +26084,9 @@
         <v>39302</v>
       </c>
     </row>
-    <row r="177" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B177">
         <v>4596</v>
@@ -26095,16 +26095,16 @@
         <v>802</v>
       </c>
       <c r="D177" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E177">
         <v>33</v>
       </c>
       <c r="F177" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G177" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H177" s="1">
         <v>39479</v>
@@ -26224,9 +26224,9 @@
         <v>39479</v>
       </c>
     </row>
-    <row r="178" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B178">
         <v>5586</v>
@@ -26235,16 +26235,16 @@
         <v>872</v>
       </c>
       <c r="D178" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E178">
         <v>33</v>
       </c>
       <c r="F178" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G178" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H178" s="1">
         <v>39660</v>
@@ -26364,9 +26364,9 @@
         <v>39660</v>
       </c>
     </row>
-    <row r="179" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B179">
         <v>3786</v>
@@ -26375,16 +26375,16 @@
         <v>315</v>
       </c>
       <c r="D179" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E179">
         <v>35</v>
       </c>
       <c r="F179" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G179" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H179" s="1">
         <v>39346</v>
@@ -26504,9 +26504,9 @@
         <v>39346</v>
       </c>
     </row>
-    <row r="180" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B180">
         <v>5082</v>
@@ -26515,16 +26515,16 @@
         <v>1380</v>
       </c>
       <c r="D180" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E180">
         <v>35</v>
       </c>
       <c r="F180" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G180" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H180" s="1">
         <v>39554</v>
@@ -26644,9 +26644,9 @@
         <v>39554</v>
       </c>
     </row>
-    <row r="181" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B181">
         <v>2698</v>
@@ -26655,16 +26655,16 @@
         <v>89</v>
       </c>
       <c r="D181" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E181">
         <v>36</v>
       </c>
       <c r="F181" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G181" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H181" s="1">
         <v>39196</v>
@@ -26784,9 +26784,9 @@
         <v>39196</v>
       </c>
     </row>
-    <row r="182" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B182">
         <v>3416</v>
@@ -26795,16 +26795,16 @@
         <v>311</v>
       </c>
       <c r="D182" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E182">
         <v>36</v>
       </c>
       <c r="F182" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G182" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H182" s="1">
         <v>39296</v>
@@ -26924,9 +26924,9 @@
         <v>39296</v>
       </c>
     </row>
-    <row r="183" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B183">
         <v>3094</v>
@@ -26935,16 +26935,16 @@
         <v>386</v>
       </c>
       <c r="D183" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E183">
         <v>36</v>
       </c>
       <c r="F183" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G183" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H183" s="1">
         <v>39251</v>
@@ -27064,9 +27064,9 @@
         <v>39251</v>
       </c>
     </row>
-    <row r="184" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B184">
         <v>4732</v>
@@ -27075,16 +27075,16 @@
         <v>746</v>
       </c>
       <c r="D184" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E184">
         <v>36</v>
       </c>
       <c r="F184" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G184" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H184" s="1">
         <v>39503</v>
@@ -27204,9 +27204,9 @@
         <v>39503</v>
       </c>
     </row>
-    <row r="185" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B185">
         <v>5040</v>
@@ -27215,16 +27215,16 @@
         <v>832</v>
       </c>
       <c r="D185" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E185">
         <v>39</v>
       </c>
       <c r="F185" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G185" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H185" s="1">
         <v>39547</v>
@@ -27347,9 +27347,9 @@
         <v>40226</v>
       </c>
     </row>
-    <row r="186" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B186">
         <v>4850</v>
@@ -27358,16 +27358,16 @@
         <v>1256</v>
       </c>
       <c r="D186" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E186">
         <v>39</v>
       </c>
       <c r="F186" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G186" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H186" s="1">
         <v>39514</v>
@@ -27487,9 +27487,9 @@
         <v>39514</v>
       </c>
     </row>
-    <row r="187" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B187">
         <v>2624</v>
@@ -27498,16 +27498,16 @@
         <v>160</v>
       </c>
       <c r="D187" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E187">
         <v>44</v>
       </c>
       <c r="F187" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G187" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H187" s="1">
         <v>39187</v>
@@ -27627,9 +27627,9 @@
         <v>39187</v>
       </c>
     </row>
-    <row r="188" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B188">
         <v>2298</v>
@@ -27638,16 +27638,16 @@
         <v>171</v>
       </c>
       <c r="D188" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E188">
         <v>44</v>
       </c>
       <c r="F188" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G188" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H188" s="1">
         <v>39148</v>
@@ -27767,9 +27767,9 @@
         <v>39148</v>
       </c>
     </row>
-    <row r="189" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B189">
         <v>2556</v>
@@ -27778,16 +27778,16 @@
         <v>172</v>
       </c>
       <c r="D189" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E189">
         <v>44</v>
       </c>
       <c r="F189" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G189" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H189" s="1">
         <v>39176</v>
@@ -27907,9 +27907,9 @@
         <v>39176</v>
       </c>
     </row>
-    <row r="190" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B190">
         <v>2724</v>
@@ -27918,16 +27918,16 @@
         <v>269</v>
       </c>
       <c r="D190" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E190">
         <v>44</v>
       </c>
       <c r="F190" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G190" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H190" s="1">
         <v>39198</v>
@@ -28047,9 +28047,9 @@
         <v>39198</v>
       </c>
     </row>
-    <row r="191" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B191">
         <v>3492</v>
@@ -28058,16 +28058,16 @@
         <v>667</v>
       </c>
       <c r="D191" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E191">
         <v>44</v>
       </c>
       <c r="F191" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G191" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H191" s="1">
         <v>39303</v>
@@ -28187,9 +28187,9 @@
         <v>39303</v>
       </c>
     </row>
-    <row r="192" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B192">
         <v>4096</v>
@@ -28198,16 +28198,16 @@
         <v>896</v>
       </c>
       <c r="D192" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E192">
         <v>44</v>
       </c>
       <c r="F192" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G192" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H192" s="1">
         <v>39384</v>
@@ -28327,9 +28327,9 @@
         <v>39384</v>
       </c>
     </row>
-    <row r="193" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B193">
         <v>1948</v>
@@ -28338,16 +28338,16 @@
         <v>51</v>
       </c>
       <c r="D193" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E193">
         <v>45</v>
       </c>
       <c r="F193" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G193" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H193" s="1">
         <v>39114</v>
@@ -28467,9 +28467,9 @@
         <v>39114</v>
       </c>
     </row>
-    <row r="194" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B194">
         <v>3902</v>
@@ -28478,16 +28478,16 @@
         <v>291</v>
       </c>
       <c r="D194" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E194">
         <v>45</v>
       </c>
       <c r="F194" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G194" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H194" s="1">
         <v>39359</v>
@@ -28607,9 +28607,9 @@
         <v>39359</v>
       </c>
     </row>
-    <row r="195" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B195">
         <v>3926</v>
@@ -28618,16 +28618,16 @@
         <v>352</v>
       </c>
       <c r="D195" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E195">
         <v>45</v>
       </c>
       <c r="F195" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G195" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H195" s="1">
         <v>39364</v>
@@ -28747,9 +28747,9 @@
         <v>39364</v>
       </c>
     </row>
-    <row r="196" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B196">
         <v>4386</v>
@@ -28758,16 +28758,16 @@
         <v>1034</v>
       </c>
       <c r="D196" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E196">
         <v>45</v>
       </c>
       <c r="F196" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G196" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H196" s="1">
         <v>39436</v>
@@ -28887,9 +28887,9 @@
         <v>39436</v>
       </c>
     </row>
-    <row r="197" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B197">
         <v>2110</v>
@@ -28898,16 +28898,16 @@
         <v>69</v>
       </c>
       <c r="D197" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E197">
         <v>4</v>
       </c>
       <c r="F197" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G197" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H197" s="1">
         <v>39134</v>
@@ -29027,9 +29027,9 @@
         <v>39134</v>
       </c>
     </row>
-    <row r="198" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B198">
         <v>2844</v>
@@ -29038,16 +29038,16 @@
         <v>296</v>
       </c>
       <c r="D198" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E198">
         <v>4</v>
       </c>
       <c r="F198" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G198" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H198" s="1">
         <v>39216</v>
@@ -29167,9 +29167,9 @@
         <v>39216</v>
       </c>
     </row>
-    <row r="199" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B199">
         <v>4696</v>
@@ -29178,16 +29178,16 @@
         <v>1226</v>
       </c>
       <c r="D199" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E199">
         <v>4</v>
       </c>
       <c r="F199" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G199" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H199" s="1">
         <v>39492</v>
@@ -29274,7 +29274,7 @@
         <v>-4</v>
       </c>
       <c r="AN199" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AO199">
         <v>-4</v>
@@ -29307,9 +29307,9 @@
         <v>39492</v>
       </c>
     </row>
-    <row r="200" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B200">
         <v>4664</v>
@@ -29318,16 +29318,16 @@
         <v>1286</v>
       </c>
       <c r="D200" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E200">
         <v>4</v>
       </c>
       <c r="F200" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G200" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H200" s="1">
         <v>39490</v>
@@ -29447,9 +29447,9 @@
         <v>39490</v>
       </c>
     </row>
-    <row r="201" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B201">
         <v>2180</v>
@@ -29458,16 +29458,16 @@
         <v>166</v>
       </c>
       <c r="D201" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E201">
         <v>87</v>
       </c>
       <c r="F201" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G201" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H201" s="1">
         <v>39141</v>
@@ -29587,9 +29587,9 @@
         <v>39141</v>
       </c>
     </row>
-    <row r="202" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B202">
         <v>2132</v>
@@ -29598,16 +29598,16 @@
         <v>173</v>
       </c>
       <c r="D202" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E202">
         <v>87</v>
       </c>
       <c r="F202" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G202" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H202" s="1">
         <v>39135</v>
@@ -29727,9 +29727,9 @@
         <v>39135</v>
       </c>
     </row>
-    <row r="203" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B203">
         <v>2706</v>
@@ -29738,16 +29738,16 @@
         <v>378</v>
       </c>
       <c r="D203" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E203">
         <v>87</v>
       </c>
       <c r="F203" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G203" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H203" s="1">
         <v>39197</v>
@@ -29867,9 +29867,9 @@
         <v>39197</v>
       </c>
     </row>
-    <row r="204" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B204">
         <v>2754</v>
@@ -29878,16 +29878,16 @@
         <v>416</v>
       </c>
       <c r="D204" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E204">
         <v>87</v>
       </c>
       <c r="F204" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G204" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H204" s="1">
         <v>39205</v>
@@ -30007,9 +30007,9 @@
         <v>39205</v>
       </c>
     </row>
-    <row r="205" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B205">
         <v>4692</v>
@@ -30018,16 +30018,16 @@
         <v>1106</v>
       </c>
       <c r="D205" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E205">
         <v>87</v>
       </c>
       <c r="F205" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G205" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H205" s="1">
         <v>39492</v>
@@ -30147,9 +30147,9 @@
         <v>39492</v>
       </c>
     </row>
-    <row r="206" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B206">
         <v>4694</v>
@@ -30158,16 +30158,16 @@
         <v>1118</v>
       </c>
       <c r="D206" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E206">
         <v>87</v>
       </c>
       <c r="F206" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G206" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H206" s="1">
         <v>39492</v>
@@ -30287,9 +30287,9 @@
         <v>39492</v>
       </c>
     </row>
-    <row r="207" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B207">
         <v>2922</v>
@@ -30298,16 +30298,16 @@
         <v>361</v>
       </c>
       <c r="D207" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E207">
         <v>5</v>
       </c>
       <c r="F207" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G207" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H207" s="1">
         <v>39224</v>
@@ -30427,9 +30427,9 @@
         <v>39224</v>
       </c>
     </row>
-    <row r="208" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B208">
         <v>3106</v>
@@ -30438,16 +30438,16 @@
         <v>382</v>
       </c>
       <c r="D208" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E208">
         <v>5</v>
       </c>
       <c r="F208" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G208" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H208" s="1">
         <v>39252</v>
@@ -30567,9 +30567,9 @@
         <v>39252</v>
       </c>
     </row>
-    <row r="209" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B209">
         <v>3664</v>
@@ -30578,16 +30578,16 @@
         <v>657</v>
       </c>
       <c r="D209" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E209">
         <v>5</v>
       </c>
       <c r="F209" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G209" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H209" s="1">
         <v>39329</v>
@@ -30707,9 +30707,9 @@
         <v>39329</v>
       </c>
     </row>
-    <row r="210" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B210">
         <v>3526</v>
@@ -30718,16 +30718,16 @@
         <v>752</v>
       </c>
       <c r="D210" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E210">
         <v>5</v>
       </c>
       <c r="F210" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G210" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H210" s="1">
         <v>39308</v>
@@ -30847,9 +30847,9 @@
         <v>39308</v>
       </c>
     </row>
-    <row r="211" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B211">
         <v>4290</v>
@@ -30858,16 +30858,16 @@
         <v>834</v>
       </c>
       <c r="D211" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E211">
         <v>5</v>
       </c>
       <c r="F211" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G211" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H211" s="1">
         <v>39420</v>
@@ -30987,9 +30987,9 @@
         <v>39420</v>
       </c>
     </row>
-    <row r="212" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B212">
         <v>4672</v>
@@ -30998,16 +30998,16 @@
         <v>1232</v>
       </c>
       <c r="D212" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E212">
         <v>5</v>
       </c>
       <c r="F212" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G212" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H212" s="1">
         <v>39490</v>
@@ -31127,9 +31127,9 @@
         <v>39490</v>
       </c>
     </row>
-    <row r="213" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B213">
         <v>4768</v>
@@ -31138,16 +31138,16 @@
         <v>1243</v>
       </c>
       <c r="D213" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E213">
         <v>5</v>
       </c>
       <c r="F213" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G213" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H213" s="1">
         <v>39506</v>
@@ -31267,9 +31267,9 @@
         <v>39506</v>
       </c>
     </row>
-    <row r="214" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B214">
         <v>4722</v>
@@ -31278,16 +31278,16 @@
         <v>1249</v>
       </c>
       <c r="D214" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E214">
         <v>5</v>
       </c>
       <c r="F214" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G214" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H214" s="1">
         <v>39498</v>
@@ -31407,9 +31407,9 @@
         <v>39498</v>
       </c>
     </row>
-    <row r="215" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B215">
         <v>4908</v>
@@ -31418,16 +31418,16 @@
         <v>1271</v>
       </c>
       <c r="D215" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E215">
         <v>5</v>
       </c>
       <c r="F215" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G215" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H215" s="1">
         <v>39526</v>
@@ -31547,9 +31547,9 @@
         <v>39526</v>
       </c>
     </row>
-    <row r="216" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B216">
         <v>3334</v>
@@ -31558,16 +31558,16 @@
         <v>72</v>
       </c>
       <c r="D216" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E216">
         <v>94</v>
       </c>
       <c r="F216" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G216" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H216" s="1">
         <v>39280</v>
@@ -31687,9 +31687,9 @@
         <v>39280</v>
       </c>
     </row>
-    <row r="217" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B217">
         <v>3446</v>
@@ -31698,16 +31698,16 @@
         <v>106</v>
       </c>
       <c r="D217" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E217">
         <v>94</v>
       </c>
       <c r="F217" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G217" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H217" s="1">
         <v>39300</v>
@@ -31827,9 +31827,9 @@
         <v>39300</v>
       </c>
     </row>
-    <row r="218" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B218">
         <v>3474</v>
@@ -31838,16 +31838,16 @@
         <v>108</v>
       </c>
       <c r="D218" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E218">
         <v>94</v>
       </c>
       <c r="F218" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G218" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H218" s="1">
         <v>39302</v>
@@ -31967,9 +31967,9 @@
         <v>39302</v>
       </c>
     </row>
-    <row r="219" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B219">
         <v>3738</v>
@@ -31978,16 +31978,16 @@
         <v>113</v>
       </c>
       <c r="D219" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E219">
         <v>94</v>
       </c>
       <c r="F219" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G219" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H219" s="1">
         <v>39338</v>
@@ -32107,9 +32107,9 @@
         <v>39338</v>
       </c>
     </row>
-    <row r="220" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B220">
         <v>2850</v>
@@ -32118,16 +32118,16 @@
         <v>298</v>
       </c>
       <c r="D220" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E220">
         <v>94</v>
       </c>
       <c r="F220" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G220" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H220" s="1">
         <v>39216</v>
@@ -32247,9 +32247,9 @@
         <v>39216</v>
       </c>
     </row>
-    <row r="221" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B221">
         <v>5250</v>
@@ -32258,16 +32258,16 @@
         <v>1300</v>
       </c>
       <c r="D221" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E221">
         <v>94</v>
       </c>
       <c r="F221" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G221" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H221" s="1">
         <v>39582</v>
@@ -32387,9 +32387,9 @@
         <v>39582</v>
       </c>
     </row>
-    <row r="222" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B222">
         <v>3204</v>
@@ -32398,16 +32398,16 @@
         <v>605</v>
       </c>
       <c r="D222" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E222">
         <v>113</v>
       </c>
       <c r="F222" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G222" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H222" s="1">
         <v>39260</v>
@@ -32527,9 +32527,9 @@
         <v>39260</v>
       </c>
     </row>
-    <row r="223" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B223">
         <v>3336</v>
@@ -32538,16 +32538,16 @@
         <v>680</v>
       </c>
       <c r="D223" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E223">
         <v>113</v>
       </c>
       <c r="F223" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G223" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H223" s="1">
         <v>39281</v>
@@ -32667,9 +32667,9 @@
         <v>39281</v>
       </c>
     </row>
-    <row r="224" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B224">
         <v>3330</v>
@@ -32678,16 +32678,16 @@
         <v>708</v>
       </c>
       <c r="D224" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E224">
         <v>113</v>
       </c>
       <c r="F224" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G224" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H224" s="1">
         <v>39280</v>
@@ -32807,9 +32807,9 @@
         <v>39280</v>
       </c>
     </row>
-    <row r="225" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B225">
         <v>3544</v>
@@ -32818,16 +32818,16 @@
         <v>709</v>
       </c>
       <c r="D225" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E225">
         <v>113</v>
       </c>
       <c r="F225" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G225" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H225" s="1">
         <v>39309</v>
@@ -32947,9 +32947,9 @@
         <v>39309</v>
       </c>
     </row>
-    <row r="226" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B226">
         <v>4240</v>
@@ -32958,16 +32958,16 @@
         <v>1077</v>
       </c>
       <c r="D226" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E226">
         <v>113</v>
       </c>
       <c r="F226" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G226" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H226" s="1">
         <v>39413</v>
@@ -33087,9 +33087,9 @@
         <v>39413</v>
       </c>
     </row>
-    <row r="227" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B227">
         <v>4548</v>
@@ -33098,16 +33098,16 @@
         <v>1187</v>
       </c>
       <c r="D227" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E227">
         <v>113</v>
       </c>
       <c r="F227" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G227" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H227" s="1">
         <v>39471</v>
@@ -33227,9 +33227,9 @@
         <v>39471</v>
       </c>
     </row>
-    <row r="228" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B228">
         <v>2034</v>
@@ -33238,16 +33238,16 @@
         <v>112</v>
       </c>
       <c r="D228" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E228">
         <v>114</v>
       </c>
       <c r="F228" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G228" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H228" s="1">
         <v>39127</v>
@@ -33367,9 +33367,9 @@
         <v>39127</v>
       </c>
     </row>
-    <row r="229" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B229">
         <v>2564</v>
@@ -33378,16 +33378,16 @@
         <v>259</v>
       </c>
       <c r="D229" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E229">
         <v>114</v>
       </c>
       <c r="F229" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G229" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H229" s="1">
         <v>39177</v>
@@ -33507,9 +33507,9 @@
         <v>39177</v>
       </c>
     </row>
-    <row r="230" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B230">
         <v>2856</v>
@@ -33518,16 +33518,16 @@
         <v>260</v>
       </c>
       <c r="D230" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E230">
         <v>114</v>
       </c>
       <c r="F230" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G230" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H230" s="1">
         <v>39216</v>
@@ -33647,9 +33647,9 @@
         <v>39216</v>
       </c>
     </row>
-    <row r="231" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B231">
         <v>3292</v>
@@ -33658,16 +33658,16 @@
         <v>622</v>
       </c>
       <c r="D231" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E231">
         <v>114</v>
       </c>
       <c r="F231" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G231" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H231" s="1">
         <v>39273</v>
@@ -33787,9 +33787,9 @@
         <v>39273</v>
       </c>
     </row>
-    <row r="232" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B232">
         <v>3628</v>
@@ -33798,16 +33798,16 @@
         <v>684</v>
       </c>
       <c r="D232" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E232">
         <v>114</v>
       </c>
       <c r="F232" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G232" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H232" s="1">
         <v>39318</v>
@@ -33927,9 +33927,9 @@
         <v>39318</v>
       </c>
     </row>
-    <row r="233" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B233">
         <v>4288</v>
@@ -33938,16 +33938,16 @@
         <v>925</v>
       </c>
       <c r="D233" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E233">
         <v>114</v>
       </c>
       <c r="F233" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G233" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H233" s="1">
         <v>39420</v>
@@ -34067,9 +34067,9 @@
         <v>39420</v>
       </c>
     </row>
-    <row r="234" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B234">
         <v>4420</v>
@@ -34078,16 +34078,16 @@
         <v>1032</v>
       </c>
       <c r="D234" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E234">
         <v>114</v>
       </c>
       <c r="F234" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G234" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H234" s="1">
         <v>39443</v>
@@ -34207,9 +34207,9 @@
         <v>39443</v>
       </c>
     </row>
-    <row r="235" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B235">
         <v>5772</v>
@@ -34218,16 +34218,16 @@
         <v>1419</v>
       </c>
       <c r="D235" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E235">
         <v>114</v>
       </c>
       <c r="F235" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G235" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H235" s="1">
         <v>39702</v>
@@ -34347,9 +34347,9 @@
         <v>39702</v>
       </c>
     </row>
-    <row r="236" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B236">
         <v>5774</v>
@@ -34358,16 +34358,16 @@
         <v>1427</v>
       </c>
       <c r="D236" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E236">
         <v>114</v>
       </c>
       <c r="F236" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G236" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H236" s="1">
         <v>39702</v>
@@ -34487,9 +34487,9 @@
         <v>39702</v>
       </c>
     </row>
-    <row r="237" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B237">
         <v>2152</v>
@@ -34498,16 +34498,16 @@
         <v>135</v>
       </c>
       <c r="D237" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E237">
         <v>115</v>
       </c>
       <c r="F237" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G237" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H237" s="1">
         <v>39139</v>
@@ -34627,9 +34627,9 @@
         <v>39139</v>
       </c>
     </row>
-    <row r="238" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B238">
         <v>2420</v>
@@ -34638,16 +34638,16 @@
         <v>200</v>
       </c>
       <c r="D238" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E238">
         <v>115</v>
       </c>
       <c r="F238" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G238" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H238" s="1">
         <v>39162</v>
@@ -34704,7 +34704,7 @@
         <v>8</v>
       </c>
       <c r="AB238" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AE238">
         <v>-4</v>
@@ -34767,9 +34767,9 @@
         <v>39162</v>
       </c>
     </row>
-    <row r="239" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B239">
         <v>2362</v>
@@ -34778,16 +34778,16 @@
         <v>225</v>
       </c>
       <c r="D239" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E239">
         <v>115</v>
       </c>
       <c r="F239" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G239" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H239" s="1">
         <v>39154</v>
@@ -34907,9 +34907,9 @@
         <v>39154</v>
       </c>
     </row>
-    <row r="240" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B240">
         <v>3634</v>
@@ -34918,16 +34918,16 @@
         <v>227</v>
       </c>
       <c r="D240" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E240">
         <v>115</v>
       </c>
       <c r="F240" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G240" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H240" s="1">
         <v>39321</v>
@@ -35047,9 +35047,9 @@
         <v>39321</v>
       </c>
     </row>
-    <row r="241" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B241">
         <v>2442</v>
@@ -35058,16 +35058,16 @@
         <v>229</v>
       </c>
       <c r="D241" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E241">
         <v>115</v>
       </c>
       <c r="F241" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G241" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H241" s="1">
         <v>39164</v>
@@ -35187,9 +35187,9 @@
         <v>39164</v>
       </c>
     </row>
-    <row r="242" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B242">
         <v>2440</v>
@@ -35198,16 +35198,16 @@
         <v>230</v>
       </c>
       <c r="D242" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E242">
         <v>115</v>
       </c>
       <c r="F242" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G242" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H242" s="1">
         <v>39164</v>
@@ -35327,9 +35327,9 @@
         <v>39164</v>
       </c>
     </row>
-    <row r="243" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B243">
         <v>2882</v>
@@ -35338,16 +35338,16 @@
         <v>272</v>
       </c>
       <c r="D243" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E243">
         <v>115</v>
       </c>
       <c r="F243" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G243" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H243" s="1">
         <v>39218</v>
@@ -35467,9 +35467,9 @@
         <v>39218</v>
       </c>
     </row>
-    <row r="244" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B244">
         <v>3112</v>
@@ -35478,16 +35478,16 @@
         <v>545</v>
       </c>
       <c r="D244" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E244">
         <v>115</v>
       </c>
       <c r="F244" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G244" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H244" s="1">
         <v>39253</v>
@@ -35607,9 +35607,9 @@
         <v>39253</v>
       </c>
     </row>
-    <row r="245" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B245">
         <v>4062</v>
@@ -35618,16 +35618,16 @@
         <v>863</v>
       </c>
       <c r="D245" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E245">
         <v>115</v>
       </c>
       <c r="F245" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G245" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H245" s="1">
         <v>39378</v>
@@ -35747,9 +35747,9 @@
         <v>39378</v>
       </c>
     </row>
-    <row r="246" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B246">
         <v>4310</v>
@@ -35758,16 +35758,16 @@
         <v>1043</v>
       </c>
       <c r="D246" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E246">
         <v>115</v>
       </c>
       <c r="F246" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G246" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H246" s="1">
         <v>39423</v>
@@ -35887,9 +35887,9 @@
         <v>39423</v>
       </c>
     </row>
-    <row r="247" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B247">
         <v>4914</v>
@@ -35898,16 +35898,16 @@
         <v>1242</v>
       </c>
       <c r="D247" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E247">
         <v>115</v>
       </c>
       <c r="F247" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G247" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H247" s="1">
         <v>39527</v>
@@ -36027,9 +36027,9 @@
         <v>39527</v>
       </c>
     </row>
-    <row r="248" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B248">
         <v>4108</v>
@@ -36038,16 +36038,16 @@
         <v>778</v>
       </c>
       <c r="D248" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E248">
         <v>116</v>
       </c>
       <c r="F248" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G248" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H248" s="1">
         <v>39388</v>
@@ -36167,9 +36167,9 @@
         <v>39388</v>
       </c>
     </row>
-    <row r="249" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B249">
         <v>5386</v>
@@ -36178,16 +36178,16 @@
         <v>1246</v>
       </c>
       <c r="D249" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E249">
         <v>116</v>
       </c>
       <c r="F249" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G249" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H249" s="1">
         <v>39608</v>
@@ -36307,9 +36307,9 @@
         <v>39608</v>
       </c>
     </row>
-    <row r="250" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B250">
         <v>2448</v>
@@ -36318,16 +36318,16 @@
         <v>232</v>
       </c>
       <c r="D250" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E250">
         <v>117</v>
       </c>
       <c r="F250" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G250" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H250" s="1">
         <v>39167</v>
@@ -36447,9 +36447,9 @@
         <v>39167</v>
       </c>
     </row>
-    <row r="251" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B251">
         <v>2606</v>
@@ -36458,16 +36458,16 @@
         <v>285</v>
       </c>
       <c r="D251" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E251">
         <v>117</v>
       </c>
       <c r="F251" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G251" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H251" s="1">
         <v>39183</v>
@@ -36587,9 +36587,9 @@
         <v>39183</v>
       </c>
     </row>
-    <row r="252" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B252">
         <v>2504</v>
@@ -36598,16 +36598,16 @@
         <v>289</v>
       </c>
       <c r="D252" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E252">
         <v>117</v>
       </c>
       <c r="F252" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G252" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H252" s="1">
         <v>39170</v>
@@ -36727,9 +36727,9 @@
         <v>39170</v>
       </c>
     </row>
-    <row r="253" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B253">
         <v>3966</v>
@@ -36738,16 +36738,16 @@
         <v>505</v>
       </c>
       <c r="D253" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E253">
         <v>117</v>
       </c>
       <c r="F253" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G253" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H253" s="1">
         <v>39366</v>
@@ -36867,9 +36867,9 @@
         <v>39366</v>
       </c>
     </row>
-    <row r="254" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B254">
         <v>4016</v>
@@ -36878,16 +36878,16 @@
         <v>886</v>
       </c>
       <c r="D254" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E254">
         <v>117</v>
       </c>
       <c r="F254" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G254" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H254" s="1">
         <v>39371</v>
@@ -37007,9 +37007,9 @@
         <v>39371</v>
       </c>
     </row>
-    <row r="255" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B255">
         <v>4112</v>
@@ -37018,16 +37018,16 @@
         <v>969</v>
       </c>
       <c r="D255" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E255">
         <v>117</v>
       </c>
       <c r="F255" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G255" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H255" s="1">
         <v>39388</v>
@@ -37147,9 +37147,9 @@
         <v>39388</v>
       </c>
     </row>
-    <row r="256" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B256">
         <v>4666</v>
@@ -37158,16 +37158,16 @@
         <v>1200</v>
       </c>
       <c r="D256" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E256">
         <v>117</v>
       </c>
       <c r="F256" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G256" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H256" s="1">
         <v>39490</v>
@@ -37287,9 +37287,9 @@
         <v>39490</v>
       </c>
     </row>
-    <row r="257" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B257">
         <v>2006</v>
@@ -37298,16 +37298,16 @@
         <v>123</v>
       </c>
       <c r="D257" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E257">
         <v>118</v>
       </c>
       <c r="F257" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G257" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H257" s="1">
         <v>39122</v>
@@ -37427,9 +37427,9 @@
         <v>39122</v>
       </c>
     </row>
-    <row r="258" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B258">
         <v>2870</v>
@@ -37438,16 +37438,16 @@
         <v>384</v>
       </c>
       <c r="D258" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E258">
         <v>118</v>
       </c>
       <c r="F258" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G258" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H258" s="1">
         <v>39218</v>
@@ -37567,9 +37567,9 @@
         <v>39218</v>
       </c>
     </row>
-    <row r="259" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B259">
         <v>2836</v>
@@ -37578,16 +37578,16 @@
         <v>441</v>
       </c>
       <c r="D259" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E259">
         <v>118</v>
       </c>
       <c r="F259" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G259" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H259" s="1">
         <v>39213</v>
@@ -37707,9 +37707,9 @@
         <v>39213</v>
       </c>
     </row>
-    <row r="260" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B260">
         <v>2758</v>
@@ -37718,16 +37718,16 @@
         <v>86</v>
       </c>
       <c r="D260" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E260">
         <v>123</v>
       </c>
       <c r="F260" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G260" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H260" s="1">
         <v>39205</v>
@@ -37847,9 +37847,9 @@
         <v>39205</v>
       </c>
     </row>
-    <row r="261" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B261">
         <v>2148</v>
@@ -37858,16 +37858,16 @@
         <v>107</v>
       </c>
       <c r="D261" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E261">
         <v>123</v>
       </c>
       <c r="F261" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G261" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H261" s="1">
         <v>39139</v>
@@ -37987,9 +37987,9 @@
         <v>39139</v>
       </c>
     </row>
-    <row r="262" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B262">
         <v>2244</v>
@@ -37998,16 +37998,16 @@
         <v>186</v>
       </c>
       <c r="D262" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E262">
         <v>123</v>
       </c>
       <c r="F262" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G262" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H262" s="1">
         <v>39146</v>
@@ -38127,9 +38127,9 @@
         <v>39146</v>
       </c>
     </row>
-    <row r="263" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B263">
         <v>3776</v>
@@ -38138,16 +38138,16 @@
         <v>695</v>
       </c>
       <c r="D263" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E263">
         <v>123</v>
       </c>
       <c r="F263" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G263" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H263" s="1">
         <v>39344</v>
@@ -38267,9 +38267,9 @@
         <v>39344</v>
       </c>
     </row>
-    <row r="264" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B264">
         <v>4014</v>
@@ -38278,16 +38278,16 @@
         <v>873</v>
       </c>
       <c r="D264" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E264">
         <v>123</v>
       </c>
       <c r="F264" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G264" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H264" s="1">
         <v>39371</v>
@@ -38407,9 +38407,9 @@
         <v>39371</v>
       </c>
     </row>
-    <row r="265" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B265">
         <v>2806</v>
@@ -38418,16 +38418,16 @@
         <v>301</v>
       </c>
       <c r="D265" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E265">
         <v>124</v>
       </c>
       <c r="F265" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G265" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H265" s="1">
         <v>39211</v>
@@ -38547,9 +38547,9 @@
         <v>39211</v>
       </c>
     </row>
-    <row r="266" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B266">
         <v>2946</v>
@@ -38558,16 +38558,16 @@
         <v>459</v>
       </c>
       <c r="D266" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E266">
         <v>124</v>
       </c>
       <c r="F266" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G266" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H266" s="1">
         <v>39231</v>
@@ -38687,9 +38687,9 @@
         <v>39231</v>
       </c>
     </row>
-    <row r="267" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B267">
         <v>3754</v>
@@ -38698,16 +38698,16 @@
         <v>668</v>
       </c>
       <c r="D267" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E267">
         <v>124</v>
       </c>
       <c r="F267" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G267" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H267" s="1">
         <v>39342</v>
@@ -38827,9 +38827,9 @@
         <v>39342</v>
       </c>
     </row>
-    <row r="268" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B268">
         <v>3782</v>
@@ -38838,16 +38838,16 @@
         <v>722</v>
       </c>
       <c r="D268" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E268">
         <v>124</v>
       </c>
       <c r="F268" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G268" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H268" s="1">
         <v>39346</v>
@@ -38967,9 +38967,9 @@
         <v>39346</v>
       </c>
     </row>
-    <row r="269" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B269">
         <v>3916</v>
@@ -38978,16 +38978,16 @@
         <v>800</v>
       </c>
       <c r="D269" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E269">
         <v>124</v>
       </c>
       <c r="F269" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G269" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H269" s="1">
         <v>39363</v>
@@ -39107,9 +39107,9 @@
         <v>39363</v>
       </c>
     </row>
-    <row r="270" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B270">
         <v>4304</v>
@@ -39118,16 +39118,16 @@
         <v>972</v>
       </c>
       <c r="D270" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E270">
         <v>124</v>
       </c>
       <c r="F270" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G270" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H270" s="1">
         <v>39423</v>
@@ -39247,9 +39247,9 @@
         <v>39423</v>
       </c>
     </row>
-    <row r="271" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B271">
         <v>4384</v>
@@ -39258,16 +39258,16 @@
         <v>973</v>
       </c>
       <c r="D271" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E271">
         <v>124</v>
       </c>
       <c r="F271" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G271" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H271" s="1">
         <v>39436</v>
@@ -39387,9 +39387,9 @@
         <v>39436</v>
       </c>
     </row>
-    <row r="272" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B272">
         <v>4322</v>
@@ -39398,16 +39398,16 @@
         <v>994</v>
       </c>
       <c r="D272" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E272">
         <v>124</v>
       </c>
       <c r="F272" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G272" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H272" s="1">
         <v>39427</v>
@@ -39527,9 +39527,9 @@
         <v>39427</v>
       </c>
     </row>
-    <row r="273" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B273">
         <v>5754</v>
@@ -39538,16 +39538,16 @@
         <v>1414</v>
       </c>
       <c r="D273" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E273">
         <v>124</v>
       </c>
       <c r="F273" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G273" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H273" s="1">
         <v>39696</v>
@@ -39667,9 +39667,9 @@
         <v>39696</v>
       </c>
     </row>
-    <row r="274" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B274">
         <v>3872</v>
@@ -39678,16 +39678,16 @@
         <v>717</v>
       </c>
       <c r="D274" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E274">
         <v>19</v>
       </c>
       <c r="F274" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G274" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H274" s="1">
         <v>39357</v>
@@ -39807,9 +39807,9 @@
         <v>39357</v>
       </c>
     </row>
-    <row r="275" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B275">
         <v>3810</v>
@@ -39818,16 +39818,16 @@
         <v>767</v>
       </c>
       <c r="D275" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E275">
         <v>19</v>
       </c>
       <c r="F275" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G275" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H275" s="1">
         <v>39350</v>
@@ -39947,9 +39947,9 @@
         <v>39350</v>
       </c>
     </row>
-    <row r="276" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B276">
         <v>5092</v>
@@ -39958,16 +39958,16 @@
         <v>915</v>
       </c>
       <c r="D276" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E276">
         <v>19</v>
       </c>
       <c r="F276" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G276" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H276" s="1">
         <v>39556</v>
@@ -40087,9 +40087,9 @@
         <v>39556</v>
       </c>
     </row>
-    <row r="277" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B277">
         <v>4234</v>
@@ -40098,16 +40098,16 @@
         <v>1004</v>
       </c>
       <c r="D277" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E277">
         <v>19</v>
       </c>
       <c r="F277" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G277" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H277" s="1">
         <v>39412</v>
@@ -40227,9 +40227,9 @@
         <v>39412</v>
       </c>
     </row>
-    <row r="278" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B278">
         <v>4250</v>
@@ -40238,16 +40238,16 @@
         <v>1052</v>
       </c>
       <c r="D278" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E278">
         <v>19</v>
       </c>
       <c r="F278" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G278" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H278" s="1">
         <v>39415</v>
@@ -40367,9 +40367,9 @@
         <v>39415</v>
       </c>
     </row>
-    <row r="279" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B279">
         <v>5240</v>
@@ -40378,16 +40378,16 @@
         <v>1255</v>
       </c>
       <c r="D279" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E279">
         <v>19</v>
       </c>
       <c r="F279" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G279" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H279" s="1">
         <v>39581</v>
@@ -40507,9 +40507,9 @@
         <v>39581</v>
       </c>
     </row>
-    <row r="280" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B280">
         <v>5100</v>
@@ -40518,16 +40518,16 @@
         <v>1378</v>
       </c>
       <c r="D280" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E280">
         <v>19</v>
       </c>
       <c r="F280" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G280" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H280" s="1">
         <v>39556</v>
@@ -40647,9 +40647,9 @@
         <v>39556</v>
       </c>
     </row>
-    <row r="281" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B281">
         <v>4900</v>
@@ -40658,16 +40658,16 @@
         <v>1194</v>
       </c>
       <c r="D281" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E281">
         <v>127</v>
       </c>
       <c r="F281" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G281" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H281" s="1">
         <v>39524</v>
@@ -40787,9 +40787,9 @@
         <v>39524</v>
       </c>
     </row>
-    <row r="282" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B282">
         <v>4754</v>
@@ -40798,16 +40798,16 @@
         <v>1202</v>
       </c>
       <c r="D282" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E282">
         <v>127</v>
       </c>
       <c r="F282" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G282" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H282" s="1">
         <v>39505</v>
@@ -40927,9 +40927,9 @@
         <v>39505</v>
       </c>
     </row>
-    <row r="283" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B283">
         <v>5348</v>
@@ -40938,16 +40938,16 @@
         <v>1203</v>
       </c>
       <c r="D283" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E283">
         <v>127</v>
       </c>
       <c r="F283" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G283" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H283" s="1">
         <v>39604</v>
